--- a/scene_cat_exp_2023.2/input_files/8_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/8_scenecat_memory_bedrooms_1.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>61.69230769230769</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N2">
-        <v>39.76923076923077</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O2">
-        <v>50.73076923076923</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,29 +575,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>80.19444444444444</v>
+        <v>60.34375</v>
       </c>
       <c r="N3">
-        <v>60.25</v>
+        <v>35.34375</v>
       </c>
       <c r="O3">
-        <v>70.22222222222223</v>
+        <v>47.84375</v>
       </c>
       <c r="P3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,29 +648,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>32.93023255813954</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N4">
-        <v>14.04651162790698</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O4">
-        <v>23.48837209302326</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,44 +701,49 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_ozxpp.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>26.26470588235294</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N5">
-        <v>11.47058823529412</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O5">
-        <v>18.86764705882353</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P5">
         <v>34</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +756,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -760,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,7 +774,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,29 +794,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>85.87179487179488</v>
+        <v>78.59375</v>
       </c>
       <c r="N6">
-        <v>70.71794871794872</v>
+        <v>57.84375</v>
       </c>
       <c r="O6">
-        <v>78.2948717948718</v>
+        <v>68.21875</v>
       </c>
       <c r="P6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +829,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -833,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -842,7 +847,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -862,29 +867,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>79.92105263157895</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N7">
-        <v>59.78947368421053</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O7">
-        <v>69.85526315789474</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -897,7 +902,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -906,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -915,44 +920,49 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_c4uwt.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>44.48387096774194</v>
+        <v>11.03125</v>
       </c>
       <c r="N8">
-        <v>30.06451612903226</v>
+        <v>2.90625</v>
       </c>
       <c r="O8">
-        <v>37.2741935483871</v>
+        <v>6.96875</v>
       </c>
       <c r="P8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +975,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -974,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -983,7 +993,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1003,29 +1013,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_9pfbj.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>91.27272727272727</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N9">
-        <v>80.09090909090909</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O9">
-        <v>85.68181818181819</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1048,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1047,27 +1057,58 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/catch_19.jpg</t>
-        </is>
+          <t>stimuli/img_6nbgt.png</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>78.45161290322581</v>
+      </c>
+      <c r="N10">
+        <v>57.83870967741935</v>
+      </c>
+      <c r="O10">
+        <v>68.14516129032258</v>
+      </c>
+      <c r="P10">
+        <v>31</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1121,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1089,58 +1130,27 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_kzg3h.png</t>
-        </is>
-      </c>
-      <c r="M11">
-        <v>77.02777777777777</v>
-      </c>
-      <c r="N11">
-        <v>56.22222222222222</v>
-      </c>
-      <c r="O11">
-        <v>66.625</v>
-      </c>
-      <c r="P11">
-        <v>36</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
+          <t>stimuli/catch_06.jpg</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1163,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1162,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1171,49 +1181,44 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_mgnmm.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>6.621621621621622</v>
+        <v>79.14705882352941</v>
       </c>
       <c r="N12">
-        <v>7.135135135135135</v>
+        <v>60.38235294117647</v>
       </c>
       <c r="O12">
-        <v>6.878378378378379</v>
+        <v>69.76470588235294</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1231,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1235,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1244,7 +1249,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1259,29 +1264,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_4wq98.png</t>
+          <t>stimuli/img_hfz8w.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>78.48387096774194</v>
+        <v>55.46153846153846</v>
       </c>
       <c r="N13">
-        <v>58.12903225806452</v>
+        <v>27.28205128205128</v>
       </c>
       <c r="O13">
-        <v>68.30645161290323</v>
+        <v>41.37179487179487</v>
       </c>
       <c r="P13">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1294,7 +1299,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1303,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1312,7 +1317,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1332,29 +1337,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>75.10526315789474</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N14">
-        <v>55.76315789473684</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O14">
-        <v>65.43421052631579</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P14">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1372,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1376,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1385,7 +1390,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1405,29 +1410,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>53.42105263157895</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N15">
-        <v>31.84210526315789</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O15">
-        <v>42.63157894736842</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P15">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1440,7 +1445,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1449,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1458,49 +1463,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_zi8qc.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>76.27500000000001</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N16">
-        <v>51.925</v>
+        <v>57.02857142857143</v>
       </c>
       <c r="O16">
-        <v>64.09999999999999</v>
+        <v>67.08571428571429</v>
       </c>
       <c r="P16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1551,29 +1551,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>66.83783783783784</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N17">
-        <v>43.78378378378378</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O17">
-        <v>55.31081081081081</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1604,49 +1604,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_mawe6.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>83.48387096774194</v>
       </c>
       <c r="N18">
-        <v>22.26530612244898</v>
+        <v>65.54838709677419</v>
       </c>
       <c r="O18">
-        <v>29.63265306122449</v>
+        <v>74.51612903225806</v>
       </c>
       <c r="P18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1659,7 +1654,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1668,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1677,7 +1672,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1697,29 +1692,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>53.87179487179487</v>
+        <v>82</v>
       </c>
       <c r="N19">
-        <v>36.02564102564103</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O19">
-        <v>44.94871794871795</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P19">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1732,7 +1727,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1741,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1750,44 +1745,49 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_zi682.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>84.59999999999999</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N20">
-        <v>69.52500000000001</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O20">
-        <v>77.0625</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1818,49 +1818,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_vbrb7.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>71.71052631578948</v>
+        <v>85.5625</v>
       </c>
       <c r="N21">
-        <v>49.81578947368421</v>
+        <v>71.46875</v>
       </c>
       <c r="O21">
-        <v>60.76315789473685</v>
+        <v>78.515625</v>
       </c>
       <c r="P21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1873,7 +1868,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1882,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1891,7 +1886,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1906,20 +1901,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_sltwe.png</t>
+          <t>stimuli/img_z5osu.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>72.02500000000001</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N22">
-        <v>46.875</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="O22">
-        <v>59.45</v>
+        <v>59.38571428571429</v>
       </c>
       <c r="P22">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -1941,7 +1936,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1950,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1959,7 +1954,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1979,29 +1974,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>87.28571428571429</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N23">
-        <v>72.65714285714286</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O23">
-        <v>79.97142857142858</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +2009,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2023,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2032,7 +2027,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2052,29 +2047,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>64.25</v>
+        <v>84</v>
       </c>
       <c r="N24">
-        <v>40.09375</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O24">
-        <v>52.171875</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2087,7 +2082,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2096,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2105,7 +2100,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2125,29 +2120,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>84.79069767441861</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N25">
-        <v>66.16279069767442</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O25">
-        <v>75.47674418604652</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2160,7 +2155,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2169,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2178,7 +2173,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2198,20 +2193,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>82.91666666666667</v>
+        <v>81.40625</v>
       </c>
       <c r="N26">
-        <v>65.52777777777777</v>
+        <v>61.4375</v>
       </c>
       <c r="O26">
-        <v>74.22222222222223</v>
+        <v>71.421875</v>
       </c>
       <c r="P26">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -2233,7 +2228,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2242,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2251,44 +2246,49 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_psgf7.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N27">
-        <v>11.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="O27">
-        <v>18.83333333333333</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,44 +2319,49 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_jge7p.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>90.42424242424242</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N28">
-        <v>75.63636363636364</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O28">
-        <v>83.03030303030303</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P28">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2374,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2378,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,49 +2392,44 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>69.42857142857143</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N29">
-        <v>46.59523809523809</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O29">
-        <v>58.01190476190476</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/8_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/8_scenecat_memory_bedrooms_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.40000000000001</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N2">
-        <v>45.62857142857143</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O2">
-        <v>57.01428571428572</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,29 +575,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>60.34375</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N3">
-        <v>35.34375</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O3">
-        <v>47.84375</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,49 +628,44 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>84.21621621621621</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N4">
-        <v>65.37837837837837</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O4">
-        <v>74.79729729729729</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -692,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,49 +696,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_5mw7y.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>56.26470588235294</v>
+        <v>72.65909090909091</v>
       </c>
       <c r="N5">
-        <v>34.26470588235294</v>
+        <v>50.86363636363637</v>
       </c>
       <c r="O5">
-        <v>45.26470588235294</v>
+        <v>61.76136363636364</v>
       </c>
       <c r="P5">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +746,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -765,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -774,49 +764,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_pjfx6.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>78.59375</v>
+        <v>32.23404255319149</v>
       </c>
       <c r="N6">
-        <v>57.84375</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="O6">
-        <v>68.21875</v>
+        <v>29.41489361702127</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +814,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -838,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -847,40 +832,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_eiu3c.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>69.28571428571429</v>
+        <v>65.15909090909091</v>
       </c>
       <c r="N7">
-        <v>47.35714285714285</v>
+        <v>46.22727272727273</v>
       </c>
       <c r="O7">
-        <v>58.32142857142857</v>
+        <v>55.69318181818181</v>
       </c>
       <c r="P7">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -902,7 +882,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -911,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -920,49 +900,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>11.03125</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N8">
-        <v>2.90625</v>
+        <v>35.25</v>
       </c>
       <c r="O8">
-        <v>6.96875</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P8">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -975,7 +950,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -984,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -993,7 +968,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1013,29 +988,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>52.48571428571429</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N9">
-        <v>27.54285714285714</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O9">
-        <v>40.01428571428572</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1023,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1057,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1066,7 +1041,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1086,29 +1061,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>78.45161290322581</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N10">
-        <v>57.83870967741935</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O10">
-        <v>68.14516129032258</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P10">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1121,7 +1096,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1130,27 +1105,58 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/catch_06.jpg</t>
-        </is>
+          <t>stimuli/img_xy930.png</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>70.5952380952381</v>
+      </c>
+      <c r="N11">
+        <v>49.47619047619047</v>
+      </c>
+      <c r="O11">
+        <v>60.03571428571429</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1163,7 +1169,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1181,44 +1187,49 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_mgnmm.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>79.14705882352941</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N12">
-        <v>60.38235294117647</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O12">
-        <v>69.76470588235294</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P12">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1231,7 +1242,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1240,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1249,44 +1260,49 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_hfz8w.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>55.46153846153846</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N13">
-        <v>27.28205128205128</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O13">
-        <v>41.37179487179487</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1299,7 +1315,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1308,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1317,49 +1333,44 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_s2zoe.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>47.10344827586207</v>
+        <v>64.71428571428571</v>
       </c>
       <c r="N14">
-        <v>25.72413793103448</v>
+        <v>44.90476190476191</v>
       </c>
       <c r="O14">
-        <v>36.41379310344828</v>
+        <v>54.80952380952381</v>
       </c>
       <c r="P14">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1372,7 +1383,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1381,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1390,49 +1401,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_89dvt.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>64.81818181818181</v>
+        <v>81.09756097560975</v>
       </c>
       <c r="N15">
-        <v>42.36363636363637</v>
+        <v>64.6829268292683</v>
       </c>
       <c r="O15">
-        <v>53.59090909090909</v>
+        <v>72.89024390243902</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1445,7 +1451,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1454,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1463,7 +1469,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1478,29 +1484,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_zi8qc.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>77.14285714285714</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N16">
-        <v>57.02857142857143</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O16">
-        <v>67.08571428571429</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1513,7 +1519,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1522,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1551,29 +1557,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>64.25925925925925</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N17">
-        <v>40.92592592592592</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O17">
-        <v>52.59259259259259</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P17">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1595,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1604,44 +1610,49 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_mawe6.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>83.48387096774194</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N18">
-        <v>65.54838709677419</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O18">
-        <v>74.51612903225806</v>
+        <v>11.125</v>
       </c>
       <c r="P18">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1665,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1663,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1672,7 +1683,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1692,29 +1703,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N19">
-        <v>62.23333333333333</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O19">
-        <v>72.11666666666667</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P19">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1738,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1736,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,49 +1756,44 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_lpas9.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>90.14285714285714</v>
+        <v>59.36585365853659</v>
       </c>
       <c r="N20">
-        <v>75.22857142857143</v>
+        <v>39.09756097560975</v>
       </c>
       <c r="O20">
-        <v>82.68571428571428</v>
+        <v>49.23170731707317</v>
       </c>
       <c r="P20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1806,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1809,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1818,35 +1824,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_vbrb7.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>85.5625</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N21">
-        <v>71.46875</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O21">
-        <v>78.515625</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P21">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -1868,7 +1879,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1877,7 +1888,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1886,7 +1897,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1901,29 +1912,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_z5osu.png</t>
+          <t>stimuli/img_zh8ms.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>71.42857142857143</v>
+        <v>59.82608695652174</v>
       </c>
       <c r="N22">
-        <v>47.34285714285714</v>
+        <v>39.43478260869565</v>
       </c>
       <c r="O22">
-        <v>59.38571428571429</v>
+        <v>49.6304347826087</v>
       </c>
       <c r="P22">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1936,7 +1947,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1945,7 +1956,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1954,7 +1965,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1974,29 +1985,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>75.66666666666667</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N23">
-        <v>54.27272727272727</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O23">
-        <v>64.96969696969697</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2009,7 +2020,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2018,7 +2029,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2027,49 +2038,44 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_15bss.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>88.42222222222222</v>
       </c>
       <c r="N24">
-        <v>65.88235294117646</v>
+        <v>75.35555555555555</v>
       </c>
       <c r="O24">
-        <v>74.94117647058823</v>
+        <v>81.88888888888889</v>
       </c>
       <c r="P24">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>10</v>
       </c>
       <c r="R24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2082,7 +2088,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2091,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,49 +2106,44 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_0jzz7.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>72.79411764705883</v>
+        <v>84.85106382978724</v>
       </c>
       <c r="N25">
-        <v>51.64705882352941</v>
+        <v>68.87234042553192</v>
       </c>
       <c r="O25">
-        <v>62.22058823529412</v>
+        <v>76.86170212765958</v>
       </c>
       <c r="P25">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2156,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2164,7 +2165,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,49 +2174,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_314bq.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>81.40625</v>
+        <v>37.08888888888889</v>
       </c>
       <c r="N26">
-        <v>61.4375</v>
+        <v>20.04444444444444</v>
       </c>
       <c r="O26">
-        <v>71.421875</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="P26">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2224,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2237,7 +2233,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,49 +2242,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>72.24242424242425</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N27">
-        <v>50</v>
+        <v>56.975</v>
       </c>
       <c r="O27">
-        <v>61.12121212121212</v>
+        <v>68.4375</v>
       </c>
       <c r="P27">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2292,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2310,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,7 +2310,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2339,29 +2330,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>76.30555555555556</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N28">
-        <v>55.33333333333334</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O28">
-        <v>65.81944444444444</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P28">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2374,7 +2365,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2383,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2392,43 +2383,936 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_cehin.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>78.86363636363636</v>
+      </c>
+      <c r="N29">
+        <v>60.02272727272727</v>
+      </c>
+      <c r="O29">
+        <v>69.44318181818181</v>
+      </c>
+      <c r="P29">
+        <v>44</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>189</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_0kqc0.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>43.74468085106383</v>
+      </c>
+      <c r="N30">
+        <v>27.14893617021277</v>
+      </c>
+      <c r="O30">
+        <v>35.4468085106383</v>
+      </c>
+      <c r="P30">
+        <v>47</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>190</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/catch_19.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>191</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_wz6x5.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>68.3695652173913</v>
+      </c>
+      <c r="N32">
+        <v>48.47826086956522</v>
+      </c>
+      <c r="O32">
+        <v>58.42391304347826</v>
+      </c>
+      <c r="P32">
+        <v>46</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>192</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>new</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>stimuli/img_qmgwq.png</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>84.58333333333333</v>
-      </c>
-      <c r="N29">
-        <v>64.44444444444444</v>
-      </c>
-      <c r="O29">
-        <v>74.51388888888889</v>
-      </c>
-      <c r="P29">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_lgxzn.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>73.11363636363636</v>
+      </c>
+      <c r="N33">
+        <v>49.97727272727273</v>
+      </c>
+      <c r="O33">
+        <v>61.54545454545455</v>
+      </c>
+      <c r="P33">
+        <v>44</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>193</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_qrc78.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>76.2</v>
+      </c>
+      <c r="N34">
+        <v>59.875</v>
+      </c>
+      <c r="O34">
+        <v>68.03749999999999</v>
+      </c>
+      <c r="P34">
+        <v>40</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>194</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_il020.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>18.85416666666667</v>
+      </c>
+      <c r="N35">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="O35">
+        <v>17.51041666666667</v>
+      </c>
+      <c r="P35">
+        <v>48</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>195</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_b17ma.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>23.0625</v>
+      </c>
+      <c r="N36">
+        <v>13.375</v>
+      </c>
+      <c r="O36">
+        <v>18.21875</v>
+      </c>
+      <c r="P36">
+        <v>48</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>36</v>
       </c>
-      <c r="Q29">
+      <c r="F37">
+        <v>196</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_6a0hu.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>61.275</v>
+      </c>
+      <c r="N37">
+        <v>42.025</v>
+      </c>
+      <c r="O37">
+        <v>51.65</v>
+      </c>
+      <c r="P37">
+        <v>40</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>197</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_f63yi.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>85.27500000000001</v>
+      </c>
+      <c r="N38">
+        <v>68.47499999999999</v>
+      </c>
+      <c r="O38">
+        <v>76.875</v>
+      </c>
+      <c r="P38">
+        <v>40</v>
+      </c>
+      <c r="Q38">
         <v>9</v>
       </c>
-      <c r="R29">
+      <c r="R38">
         <v>9</v>
       </c>
-      <c r="S29">
+      <c r="S38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>198</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_pey7u.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>30.34883720930232</v>
+      </c>
+      <c r="N39">
+        <v>20.34883720930232</v>
+      </c>
+      <c r="O39">
+        <v>25.34883720930232</v>
+      </c>
+      <c r="P39">
+        <v>43</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>199</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_emh91.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>82.06666666666666</v>
+      </c>
+      <c r="N40">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="O40">
+        <v>72.7</v>
+      </c>
+      <c r="P40">
+        <v>45</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_eh0no.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>53.66666666666666</v>
+      </c>
+      <c r="N41">
+        <v>36.02564102564103</v>
+      </c>
+      <c r="O41">
+        <v>44.84615384615385</v>
+      </c>
+      <c r="P41">
+        <v>39</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>201</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_amsgw.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>86.08510638297872</v>
+      </c>
+      <c r="N42">
+        <v>65.95744680851064</v>
+      </c>
+      <c r="O42">
+        <v>76.02127659574468</v>
+      </c>
+      <c r="P42">
+        <v>47</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>9</v>
+      </c>
+      <c r="S42">
         <v>9</v>
       </c>
     </row>
